--- a/Parent_Turtle_ver.servo_main/Parent_Turtle_no1_video.xlsx
+++ b/Parent_Turtle_ver.servo_main/Parent_Turtle_no1_video.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuta\Desktop\RC19_Circuit\Parent_Turtle_ver.no1_video\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mizuta\Desktop\RC19_Circuit\Parent_Turtle_ver.servo_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="239">
   <si>
     <t>VSS_A</t>
     <phoneticPr fontId="1"/>
@@ -975,6 +975,22 @@
   </si>
   <si>
     <t>PB7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A/D QI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2986,7 +3002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -3518,10 +3534,10 @@
   <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9391,15 +9407,20 @@
       <c r="D93" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="G93" s="107"/>
-      <c r="I93" s="86" t="str">
+      <c r="G93" s="107" t="s">
+        <v>235</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="I93" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>15</v>
       </c>
       <c r="J93" s="3"/>
       <c r="K93" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC0</v>
+        <v/>
       </c>
       <c r="L93" s="24" t="str">
         <f t="shared" si="19"/>
@@ -9413,9 +9434,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P93" s="1" t="str">
+      <c r="P93" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H93,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H93,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="Q93" s="1">
         <f t="shared" si="22"/>
@@ -9452,14 +9473,17 @@
         <v>184</v>
       </c>
       <c r="G94" s="107"/>
-      <c r="I94" s="86" t="str">
+      <c r="H94" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="I94" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="J94" s="3"/>
       <c r="K94" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC1</v>
+        <v/>
       </c>
       <c r="L94" s="24" t="str">
         <f t="shared" si="19"/>
@@ -9473,9 +9497,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P94" s="1" t="str">
+      <c r="P94" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H94,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H94,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="Q94" s="1">
         <f t="shared" si="22"/>
@@ -9512,14 +9536,17 @@
         <v>185</v>
       </c>
       <c r="G95" s="107"/>
-      <c r="I95" s="86" t="str">
+      <c r="H95" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="I95" s="86">
         <f t="shared" si="17"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="J95" s="3"/>
       <c r="K95" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC2</v>
+        <v/>
       </c>
       <c r="L95" s="24" t="str">
         <f t="shared" si="19"/>
@@ -9533,9 +9560,9 @@
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="P95" s="1" t="str">
+      <c r="P95" s="1">
         <f>IFERROR(INDEX(ピン配置!$C$3:$I$18,MATCH(VALUE(MID(H95,3,2)),ピン配置!$B$3:$B$18,0),MATCH(MID(H95,2,1),ピン配置!$C$2:$I$2,0)),"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="Q95" s="1">
         <f t="shared" si="22"/>
@@ -9571,7 +9598,7 @@
       <c r="D96" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="G96" s="107"/>
+      <c r="G96" s="94"/>
       <c r="I96" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9631,7 +9658,7 @@
       <c r="D97" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="G97" s="107"/>
+      <c r="G97" s="94"/>
       <c r="I97" s="86" t="str">
         <f t="shared" si="17"/>
         <v/>
@@ -9691,7 +9718,7 @@
       <c r="D98" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="G98" s="106"/>
+      <c r="G98" s="95"/>
       <c r="H98" s="89"/>
       <c r="I98" s="89" t="str">
         <f t="shared" si="17"/>
@@ -10364,7 +10391,7 @@
       <c r="J109" s="3"/>
       <c r="K109" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC0</v>
+        <v/>
       </c>
       <c r="L109" s="24" t="str">
         <f t="shared" si="19"/>
@@ -10424,7 +10451,7 @@
       <c r="J110" s="3"/>
       <c r="K110" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC1</v>
+        <v/>
       </c>
       <c r="L110" s="24" t="str">
         <f t="shared" si="19"/>
@@ -10484,7 +10511,7 @@
       <c r="J111" s="3"/>
       <c r="K111" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC2</v>
+        <v/>
       </c>
       <c r="L111" s="24" t="str">
         <f t="shared" si="19"/>
@@ -11311,7 +11338,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC0</v>
+        <v/>
       </c>
       <c r="L125" s="24" t="str">
         <f t="shared" si="19"/>
@@ -11371,7 +11398,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC1</v>
+        <v/>
       </c>
       <c r="L126" s="24" t="str">
         <f t="shared" si="19"/>
@@ -11431,7 +11458,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="33" t="str">
         <f t="shared" si="18"/>
-        <v>PC2</v>
+        <v/>
       </c>
       <c r="L127" s="24" t="str">
         <f t="shared" si="19"/>
@@ -13135,8 +13162,8 @@
     <mergeCell ref="G141:G144"/>
     <mergeCell ref="B145:B148"/>
     <mergeCell ref="G145:G148"/>
+    <mergeCell ref="G93:G95"/>
     <mergeCell ref="G75:G76"/>
-    <mergeCell ref="G93:G98"/>
     <mergeCell ref="G41:G47"/>
     <mergeCell ref="G52:G55"/>
     <mergeCell ref="G60:G63"/>
@@ -13152,7 +13179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -13200,7 +13227,7 @@
       </c>
       <c r="E3" s="35" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B3,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>AD1_IN10</v>
       </c>
       <c r="F3" s="35" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B3,使用ポート!$H:$H,0)),"")</f>
@@ -13227,7 +13254,7 @@
       </c>
       <c r="E4" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B4,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>AD1_IN11</v>
       </c>
       <c r="F4" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B4,使用ポート!$H:$H,0)),"")</f>
@@ -13254,7 +13281,7 @@
       </c>
       <c r="E5" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;E$2&amp;$B5,使用ポート!$H:$H,0)),"")</f>
-        <v/>
+        <v>AD1_IN12</v>
       </c>
       <c r="F5" s="74" t="str">
         <f ca="1">IFERROR(INDIRECT("使用ポート!V"&amp;MATCH("P"&amp;F$2&amp;$B5,使用ポート!$H:$H,0)),"")</f>
